--- a/M2/D2/Copia di ESERCIZIO M2 2-2.xlsx
+++ b/M2/D2/Copia di ESERCIZIO M2 2-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{5145E369-5FB8-4A78-862C-81C292D615EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{612C1D41-880A-4B7E-B098-D78B3F406ACC}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="8_{5145E369-5FB8-4A78-862C-81C292D615EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C0A0338-04DB-46EF-AB72-3F01AAF16A23}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,8 +129,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="168" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -211,7 +214,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -226,6 +229,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -650,7 +657,7 @@
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -658,6 +665,7 @@
     <col min="2" max="2" width="10.15234375" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="16.84375" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="8" max="8" width="11.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
@@ -693,7 +701,7 @@
       <c r="F3" s="2">
         <v>0.75</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="11">
         <f>SUM((D3-C3)+(F3-E3))</f>
         <v>0.31944444444444436</v>
       </c>
@@ -710,9 +718,13 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="H4" s="2">
+      <c r="H4" s="11">
         <f t="shared" ref="H4:H8" si="0">SUM((D4-C4)+(F4-E4))</f>
         <v>0.25000000000000006</v>
+      </c>
+      <c r="I4" s="9">
+        <f>H3+H4</f>
+        <v>0.56944444444444442</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
@@ -731,7 +743,7 @@
       <c r="F5" s="2">
         <v>0.75694444444444453</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="11">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
@@ -752,7 +764,7 @@
       <c r="F6" s="2">
         <v>0.74305555555555547</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="11">
         <f t="shared" si="0"/>
         <v>0.34027777777777757</v>
       </c>
@@ -773,7 +785,7 @@
       <c r="F7" s="2">
         <v>0.75347222222222221</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>0.33333333333333337</v>
       </c>
@@ -790,7 +802,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="H8" s="2">
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>0.14583333333333331</v>
       </c>
@@ -809,14 +821,17 @@
       <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="10">
         <f>SUM(H3:H8)</f>
         <v>1.7222222222222221</v>
       </c>
       <c r="I11">
-        <f>17*60+20</f>
-        <v>1040</v>
-      </c>
+        <f>5*60+20</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="9"/>
@@ -830,13 +845,13 @@
       <c r="F14" s="6">
         <v>17.5</v>
       </c>
-      <c r="H14" s="1">
-        <f>I11*I14</f>
-        <v>303.33333333333337</v>
+      <c r="H14" s="13">
+        <f>36*F14</f>
+        <v>630</v>
       </c>
       <c r="I14">
-        <f>17.5/60</f>
-        <v>0.29166666666666669</v>
+        <f>19/60</f>
+        <v>0.31666666666666665</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
@@ -846,7 +861,10 @@
       <c r="F15" s="6">
         <v>19</v>
       </c>
-      <c r="H15" s="1"/>
+      <c r="H15" s="1">
+        <f>I11*I14</f>
+        <v>101.33333333333333</v>
+      </c>
     </row>
     <row r="18" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F18" s="4" t="s">
@@ -854,7 +872,7 @@
       </c>
       <c r="H18" s="1">
         <f>H14+H15</f>
-        <v>303.33333333333337</v>
+        <v>731.33333333333337</v>
       </c>
     </row>
   </sheetData>

--- a/M2/D2/Copia di ESERCIZIO M2 2-2.xlsx
+++ b/M2/D2/Copia di ESERCIZIO M2 2-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{5145E369-5FB8-4A78-862C-81C292D615EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C0A0338-04DB-46EF-AB72-3F01AAF16A23}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{5145E369-5FB8-4A78-862C-81C292D615EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0132A2AB-B135-4580-A7B8-52AD488F54E4}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Autore:</t>
         </r>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 numero totale di ore lavorate in minuti</t>
@@ -63,7 +63,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Autore:</t>
         </r>
@@ -72,7 +72,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 ritribuzione per minuti</t>
@@ -129,11 +129,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[h]:mm:ss;@"/>
-    <numFmt numFmtId="168" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="[h]:mm:ss;@"/>
+    <numFmt numFmtId="166" formatCode="h:mm;@"/>
+    <numFmt numFmtId="168" formatCode="[h]:mm;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -162,14 +163,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -214,7 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -229,10 +230,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -657,7 +659,7 @@
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -817,6 +819,12 @@
       <c r="F9" s="1"/>
       <c r="H9" s="1"/>
     </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="H10" s="14">
+        <f>SUM(H3:H8)</f>
+        <v>1.7222222222222221</v>
+      </c>
+    </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="F11" s="4" t="s">
         <v>12</v>
